--- a/HDMI_Composit_video/current.xlsx
+++ b/HDMI_Composit_video/current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project&amp;soft\Altium\Altium_proj\HDMI_Composit_video\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB45BE8-56D0-4D2B-8B71-4608B3F0FF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AA9D53-1D8E-4428-B7DE-027AD7D691D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="19470" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>I</t>
   </si>
@@ -43,6 +34,9 @@
   </si>
   <si>
     <t>ADV7611</t>
+  </si>
+  <si>
+    <t>ADV7393</t>
   </si>
 </sst>
 </file>
@@ -367,7 +361,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,10 +403,24 @@
         <v>114.4</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>339.4</v>
+        <v>450.4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -435,16 +443,32 @@
         <v>57.6</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>SUM(C10:C13)</f>
-        <v>236.1</v>
+        <v>296.10000000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HDMI_Composit_video/current.xlsx
+++ b/HDMI_Composit_video/current.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project&amp;soft\Altium\Altium_proj\HDMI_Composit_video\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AA9D53-1D8E-4428-B7DE-027AD7D691D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECC2F78-9B9D-410D-8922-3D5A6CAB8EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>I</t>
   </si>
@@ -37,13 +37,43 @@
   </si>
   <si>
     <t>ADV7393</t>
+  </si>
+  <si>
+    <t>VAA</t>
+  </si>
+  <si>
+    <t>VDDio</t>
+  </si>
+  <si>
+    <t>DVDDIO</t>
+  </si>
+  <si>
+    <t>TVDD</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>PVDD1</t>
+  </si>
+  <si>
+    <t>PVDD2</t>
+  </si>
+  <si>
+    <t>DVDD</t>
+  </si>
+  <si>
+    <t>CVDD</t>
+  </si>
+  <si>
+    <t>VDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +81,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,12 +150,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -358,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -374,93 +460,172 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>188.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="C3">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f>(5-B2)*C2/1000</f>
+        <v>0.60192000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f>(5-E2)*F2/1000</f>
+        <v>0.11808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>1.8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>114.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f>(5-B4)*C4/1000</f>
+        <v>0.36608000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="C6" s="7">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="C6">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F6" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <f>SUM(C2:C6)</f>
-        <v>450.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f>(5-B6)*C6/1000</f>
+        <v>0.32320000000000004</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f>(5-E6)*F6/1000</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>3.3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>178.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1">
         <v>3.3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C13" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>SUM(C10:C13)</f>
-        <v>296.10000000000002</v>
+        <v>246.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <f>(5-B11)*C14/1000</f>
+        <v>0.41837000000000008</v>
       </c>
     </row>
   </sheetData>
